--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3062F2-D632-4CBD-A709-30E005073809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CF5C7-05CC-4333-A4E2-A8C9C614C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1356" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CF5C7-05CC-4333-A4E2-A8C9C614C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84BE2A-3334-4927-9FF9-12A9B82D6AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1356" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tareas Proyecto" sheetId="1" r:id="rId1"/>
+    <sheet name="Control de tiempo total " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Tarea</t>
   </si>
@@ -31,12 +45,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Fecha de Inicio</t>
-  </si>
-  <si>
-    <t>Fecha de Fin</t>
-  </si>
-  <si>
     <t>Definir requisitos</t>
   </si>
   <si>
@@ -116,6 +124,51 @@
   </si>
   <si>
     <t>Crear la interfaz con Thymeleaf y Tailwind CSS</t>
+  </si>
+  <si>
+    <t>Descripción de lo realizado</t>
+  </si>
+  <si>
+    <t>Tiempo Implementado</t>
+  </si>
+  <si>
+    <t>Estructura del proyecto,Entidades y demás</t>
+  </si>
+  <si>
+    <t>Preparación del proyecto</t>
+  </si>
+  <si>
+    <t>Tiempo Total(mins)</t>
+  </si>
+  <si>
+    <t>Tiempo Total(horas)</t>
+  </si>
+  <si>
+    <t>Creación de las entidades, relaciones y ENUMS</t>
+  </si>
+  <si>
+    <t>Creación de los beans repository,service, controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de la pantalla principal(index.html) </t>
+  </si>
+  <si>
+    <t>Ver algunas funciones básicas de estilo Tailwind CSS</t>
+  </si>
+  <si>
+    <t>Información de ejemplo para ver como queda</t>
+  </si>
+  <si>
+    <t>Logo de la aplicación</t>
+  </si>
+  <si>
+    <t>Vista específica de una bici(view.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar este excel </t>
+  </si>
+  <si>
+    <t>Realizar un readme con lo que va a ser el proyecto</t>
   </si>
 </sst>
 </file>
@@ -139,15 +192,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,11 +227,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,11 +327,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -210,42 +381,98 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -380,14 +607,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:E13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="A1:E13" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{49B8059D-F37C-43FB-815B-796F5E666653}" name="Estado" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{204DDDF5-88FC-4A0B-B51B-ED99259AEC09}" name="Fecha de Inicio" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{197B94E6-225F-4E56-9E6A-F85B210DB0E9}" name="Fecha de Fin" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:C13" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{49B8059D-F37C-43FB-815B-796F5E666653}" name="Estado" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:B12" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,12 +927,10 @@
     <col min="1" max="1" width="28.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,168 +940,138 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
@@ -887,4 +1091,148 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="179" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10">
+        <v>180</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUM(B2:B1048576)</f>
+        <v>1000</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <f>E5/60</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="10">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84BE2A-3334-4927-9FF9-12A9B82D6AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3989A7-60CB-4E1E-93A1-7E61DA710AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Tarea</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>Realizar un readme con lo que va a ser el proyecto</t>
+  </si>
+  <si>
+    <t>Ampliación de la imagen en la vista(view.html)</t>
+  </si>
+  <si>
+    <t>Dividir Componentes en dos columnas + precio en la vista(view.html) + colocar el botón de los filtros y el del buscador</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Commit 1.1</t>
   </si>
 </sst>
 </file>
@@ -316,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,12 +340,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -354,11 +360,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -386,6 +404,81 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -398,81 +491,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -607,23 +625,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:C13" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{49B8059D-F37C-43FB-815B-796F5E666653}" name="Estado" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{49B8059D-F37C-43FB-815B-796F5E666653}" name="Estado" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:B12" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C14" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E0787E09-7269-4330-BD75-D7A9A8B0DA52}" name="Commit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1075,13 +1094,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pendiente">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Pendiente">
       <formula>NOT(ISERROR(SEARCH("Pendiente",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En progreso">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En progreso">
       <formula>NOT(ISERROR(SEARCH("En progreso",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Hecho">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Hecho">
       <formula>NOT(ISERROR(SEARCH("Hecho",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1095,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,117 +1129,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>180</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="12">
         <f>SUM(B2:B1048576)</f>
-        <v>1000</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <f>E5/60</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>17.173333333333336</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3989A7-60CB-4E1E-93A1-7E61DA710AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C269F3-E1C0-4C4F-A380-27DB64F5076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Tarea</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Preparación del proyecto</t>
   </si>
   <si>
-    <t>Tiempo Total(mins)</t>
-  </si>
-  <si>
     <t>Tiempo Total(horas)</t>
   </si>
   <si>
@@ -181,13 +178,26 @@
   </si>
   <si>
     <t>Commit 1.1</t>
+  </si>
+  <si>
+    <t>Inventando para añadir más modelos de bicicletas.
+Tiempo: 2h37mins</t>
+  </si>
+  <si>
+    <t>Commit 1.2</t>
+  </si>
+  <si>
+    <t>Commit 1.3</t>
+  </si>
+  <si>
+    <t>Datos de bicicletas y componentes para los ejemplos Tiempo:3h:00mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +209,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,13 +376,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,9 +397,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -397,6 +416,9 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -637,12 +659,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C14" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C16" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E0787E09-7269-4330-BD75-D7A9A8B0DA52}" name="Commit" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E0787E09-7269-4330-BD75-D7A9A8B0DA52}" name="Commit" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,13 +1116,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Pendiente">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Pendiente">
       <formula>NOT(ISERROR(SEARCH("Pendiente",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En progreso">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En progreso">
       <formula>NOT(ISERROR(SEARCH("En progreso",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Hecho">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Hecho">
       <formula>NOT(ISERROR(SEARCH("Hecho",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1114,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,8 +1157,8 @@
       <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>47</v>
+      <c r="C1" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1149,7 +1171,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10">
         <v>30</v>
@@ -1162,36 +1184,29 @@
       <c r="B4" s="8">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="11"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8">
         <v>180</v>
       </c>
       <c r="E5" s="12">
-        <f>SUM(B2:B1048576)</f>
-        <v>1030.4000000000001</v>
+        <f>SUM(B2:B1048576)/60</f>
+        <v>22.790000000000003</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="12">
-        <f>E5/60</f>
-        <v>17.173333333333336</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8">
         <v>90</v>
@@ -1199,7 +1214,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>90</v>
@@ -1207,7 +1222,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
         <v>180</v>
@@ -1215,7 +1230,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8">
         <v>15</v>
@@ -1223,7 +1238,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="8">
         <v>150</v>
@@ -1231,7 +1246,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
@@ -1239,7 +1254,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -1247,7 +1262,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8">
         <v>13.4</v>
@@ -1255,22 +1270,44 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="B15" s="8">
+        <v>157</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8">
+        <v>180</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C269F3-E1C0-4C4F-A380-27DB64F5076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE49B311-85A6-48EA-BE0B-D5DBDFE5942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Tarea</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Datos de bicicletas y componentes para los ejemplos Tiempo:3h:00mins</t>
+  </si>
+  <si>
+    <t>Asociación de componentes a bicicletas</t>
+  </si>
+  <si>
+    <t>Commit 1.4</t>
   </si>
 </sst>
 </file>
@@ -659,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C16" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C17" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1136,11 +1142,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>34</v>
@@ -1198,7 +1204,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>22.790000000000003</v>
+        <v>25.873333333333335</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1297,8 +1303,19 @@
       <c r="B16" s="8">
         <v>180</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8">
+        <v>160</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE49B311-85A6-48EA-BE0B-D5DBDFE5942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0476A9E-821B-4F6D-8004-91873959C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Tarea</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Commit 1.4</t>
+  </si>
+  <si>
+    <t>Filtros y buscador</t>
+  </si>
+  <si>
+    <t>Filtros Tiempo= 90+ lo que cuente el reloj</t>
+  </si>
+  <si>
+    <t>Commit 1.5</t>
   </si>
 </sst>
 </file>
@@ -665,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C17" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C19" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1142,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1213,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>25.873333333333335</v>
+        <v>30.956666666666667</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1314,8 +1323,27 @@
       <c r="B17" s="8">
         <v>160</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="8">
+        <v>147</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0476A9E-821B-4F6D-8004-91873959C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D4916-5105-4CDA-B99F-F9A1F446FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Tarea</t>
   </si>
@@ -202,10 +202,16 @@
     <t>Filtros y buscador</t>
   </si>
   <si>
-    <t>Filtros Tiempo= 90+ lo que cuente el reloj</t>
-  </si>
-  <si>
     <t>Commit 1.5</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Buscador</t>
+  </si>
+  <si>
+    <t>Buscador para que busque por marca y modelo o por una de las dos cosas(Sin conseguir)</t>
   </si>
 </sst>
 </file>
@@ -674,8 +680,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C19" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C21" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1151,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,7 +1219,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>30.956666666666667</v>
+        <v>33.623333333333335</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1337,14 +1343,31 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="8">
         <v>147</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="8">
+        <v>100</v>
+      </c>
+      <c r="C21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D4916-5105-4CDA-B99F-F9A1F446FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAACD35-157F-400A-B324-8755EC89B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Tarea</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Agregar enlaces de más info</t>
   </si>
   <si>
-    <t>Optimizar la BD</t>
-  </si>
-  <si>
-    <t>Implementar web scraping</t>
-  </si>
-  <si>
-    <t>Probar y corregir errores</t>
-  </si>
-  <si>
     <t>Documentar el proyecto</t>
   </si>
   <si>
@@ -97,15 +88,6 @@
   </si>
   <si>
     <t>Botón que lleve a la web oficial de la bici</t>
-  </si>
-  <si>
-    <t>Indexar y mejorar rendimiento de consultas</t>
-  </si>
-  <si>
-    <t>Extraer datos de marcas y guardarlos en BD</t>
-  </si>
-  <si>
-    <t>Testear todas las funciones y arreglar bugs</t>
   </si>
   <si>
     <t>Explicar arquitectura y funcionamiento</t>
@@ -212,6 +194,45 @@
   </si>
   <si>
     <t>Buscador para que busque por marca y modelo o por una de las dos cosas(Sin conseguir)</t>
+  </si>
+  <si>
+    <t>Buscador Completado</t>
+  </si>
+  <si>
+    <t>Commit 1.6</t>
+  </si>
+  <si>
+    <t>Estructura base de la tabla del comparador</t>
+  </si>
+  <si>
+    <t>Medio diseño y estilo</t>
+  </si>
+  <si>
+    <t>Commit 1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select y options </t>
+  </si>
+  <si>
+    <t>Select y options para elegir las bicicletas a comparar</t>
+  </si>
+  <si>
+    <t>Solo aparezcan las bicicletas del tipo de la bici principal</t>
+  </si>
+  <si>
+    <t>Un simbolo de una X que cuando se le pulse se borre la bici y sus componentes</t>
+  </si>
+  <si>
+    <t>Función para borrar la bicicleta del comparador</t>
+  </si>
+  <si>
+    <t>Buscador por marca y modelo</t>
+  </si>
+  <si>
+    <t>Agregar un par de bicis más de Berria</t>
+  </si>
+  <si>
+    <t>Agregar un par de modelos más de Berria a las distintas categorias</t>
   </si>
 </sst>
 </file>
@@ -668,8 +689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="A1:C13" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C16" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:C16" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="12"/>
@@ -680,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C21" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C24" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -978,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1019,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1030,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1041,10 +1062,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1052,87 +1073,114 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1157,11 +1205,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,18 +1221,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -1192,7 +1240,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10">
         <v>30</v>
@@ -1200,26 +1248,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8">
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8">
         <v>180</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>33.623333333333335</v>
+        <v>35.373333333333335</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1227,7 +1275,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8">
         <v>90</v>
@@ -1235,7 +1283,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <v>90</v>
@@ -1243,7 +1291,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8">
         <v>180</v>
@@ -1251,7 +1299,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>15</v>
@@ -1259,7 +1307,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>150</v>
@@ -1267,7 +1315,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
@@ -1275,7 +1323,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -1283,7 +1331,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="8">
         <v>13.4</v>
@@ -1291,51 +1339,51 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="8">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8">
         <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8">
         <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8">
         <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8">
         <v>158</v>
@@ -1343,18 +1391,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8">
         <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8">
         <v>60</v>
@@ -1362,12 +1410,42 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
       </c>
-      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="8">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAACD35-157F-400A-B324-8755EC89B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C4F32-CCF2-48E6-8514-325581D45F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Tarea</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Agregar un par de modelos más de Berria a las distintas categorias</t>
+  </si>
+  <si>
+    <t>Cargar un par de bicis más de Berria</t>
+  </si>
+  <si>
+    <t>Commit 1.8</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -430,9 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +692,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C16" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="A1:C16" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C15" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:C15" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="12"/>
@@ -701,8 +704,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C24" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C25" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -999,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1109,7 +1112,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1157,29 +1160,24 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1205,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,7 +1265,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>35.373333333333335</v>
+        <v>35.79</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1434,7 +1432,6 @@
       <c r="B23" s="8">
         <v>40</v>
       </c>
-      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
@@ -1443,8 +1440,19 @@
       <c r="B24" s="8">
         <v>60</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C4F32-CCF2-48E6-8514-325581D45F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF3928-CF1C-4933-A3BB-247FEA90954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Tarea</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Documentar el proyecto</t>
   </si>
   <si>
-    <t>Desplegar aplicación</t>
-  </si>
-  <si>
     <t>Funcionalidades y características del comparador</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>Explicar arquitectura y funcionamiento</t>
-  </si>
-  <si>
-    <t>Subir al servidor y configurar BD en producción</t>
   </si>
   <si>
     <t>Pendiente</t>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t>Commit 1.8</t>
+  </si>
+  <si>
+    <t>Select con las bicicletas junto con la imagen y que se borre si se pulsa la X</t>
+  </si>
+  <si>
+    <t>Commit 1.9</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,6 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,8 +695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C15" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="A1:C15" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C14" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:C14" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="12"/>
@@ -704,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C25" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C26" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1002,10 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1043,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1054,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1065,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1076,21 +1080,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1098,40 +1102,40 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -1142,43 +1146,32 @@
         <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1203,11 +1196,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
-  <dimension ref="A1:H25"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1219,18 +1213,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -1238,7 +1232,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10">
         <v>30</v>
@@ -1246,26 +1240,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8">
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="8">
         <v>180</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>35.79</v>
+        <v>38.29</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1273,7 +1267,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8">
         <v>90</v>
@@ -1281,7 +1275,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8">
         <v>90</v>
@@ -1289,7 +1283,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8">
         <v>180</v>
@@ -1297,7 +1291,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8">
         <v>15</v>
@@ -1305,7 +1299,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
         <v>150</v>
@@ -1313,7 +1307,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>13.4</v>
@@ -1337,51 +1331,51 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="8">
         <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8">
         <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8">
         <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="8">
         <v>158</v>
@@ -1389,18 +1383,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8">
         <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="8">
         <v>60</v>
@@ -1408,7 +1402,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -1416,18 +1410,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="8">
         <v>40</v>
@@ -1435,23 +1429,34 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="8">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="8">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8">
+        <v>150</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF3928-CF1C-4933-A3BB-247FEA90954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF9DA5D-A26B-41CF-A1D8-646A231ADAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Tarea</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Commit 1.9</t>
+  </si>
+  <si>
+    <t>Commit 1.10</t>
+  </si>
+  <si>
+    <t>Orden Deseado de los Componentes dependiendo del tipo de bici de la primera bici,que se quite de la lista la primera bici seleccionada del comparador.</t>
   </si>
 </sst>
 </file>
@@ -707,8 +713,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C26" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C27" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1009,7 +1015,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,11 +1203,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>38.29</v>
+        <v>38.456666666666671</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1456,8 +1462,19 @@
       <c r="B26" s="8">
         <v>150</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF9DA5D-A26B-41CF-A1D8-646A231ADAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF3928-CF1C-4933-A3BB-247FEA90954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Tarea</t>
   </si>
@@ -239,12 +239,6 @@
   </si>
   <si>
     <t>Commit 1.9</t>
-  </si>
-  <si>
-    <t>Commit 1.10</t>
-  </si>
-  <si>
-    <t>Orden Deseado de los Componentes dependiendo del tipo de bici de la primera bici,que se quite de la lista la primera bici seleccionada del comparador.</t>
   </si>
 </sst>
 </file>
@@ -713,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C27" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C26" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1015,7 +1009,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,11 +1197,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,7 +1259,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>38.456666666666671</v>
+        <v>38.29</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1462,19 +1456,8 @@
       <c r="B26" s="8">
         <v>150</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="15" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="8">
-        <v>10</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF3928-CF1C-4933-A3BB-247FEA90954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870D9DF-58C7-4148-88B5-F897EE523254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="0" windowWidth="25800" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas Proyecto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Tarea</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Commit 1.9</t>
+  </si>
+  <si>
+    <t>Orden de los componentes dependiendo del tipo de bici</t>
+  </si>
+  <si>
+    <t>Commit 1.10</t>
+  </si>
+  <si>
+    <t>Mostrar los componentes de la bici principal</t>
+  </si>
+  <si>
+    <t>Commit 1.11</t>
   </si>
 </sst>
 </file>
@@ -707,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C26" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C28" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1197,11 +1209,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1271,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>38.29</v>
+        <v>38.79</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1456,8 +1468,30 @@
       <c r="B26" s="8">
         <v>150</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870D9DF-58C7-4148-88B5-F897EE523254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F57328-2B56-47D9-939E-CDE0D6ADB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="0" windowWidth="25800" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Tarea</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Commit 1.9</t>
   </si>
   <si>
-    <t>Orden de los componentes dependiendo del tipo de bici</t>
-  </si>
-  <si>
     <t>Commit 1.10</t>
   </si>
   <si>
@@ -251,6 +248,12 @@
   </si>
   <si>
     <t>Commit 1.11</t>
+  </si>
+  <si>
+    <t>Orden de los componentes dependiendo del tipo de bici elimina la 1ª bici del comparador de los select</t>
+  </si>
+  <si>
+    <t>Commit 1.12</t>
   </si>
 </sst>
 </file>
@@ -719,8 +722,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C28" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C29" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1209,11 +1212,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,7 +1274,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>38.79</v>
+        <v>39.04</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1473,25 +1476,34 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>69</v>
+      <c r="C27" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="8">
         <v>20</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="B29" s="8">
+        <v>15</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F57328-2B56-47D9-939E-CDE0D6ADB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFFDED4-D003-4189-8C46-771B5D5851C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="0" windowWidth="25800" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas Proyecto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Tarea</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Commit 1.12</t>
+  </si>
+  <si>
+    <t>Commit 1.13</t>
+  </si>
+  <si>
+    <t>Muestra la información principal de la bici de los dos select</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C29" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C30" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1212,11 +1215,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1277,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>39.04</v>
+        <v>41.073333333333338</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1502,8 +1505,19 @@
       <c r="B29" s="8">
         <v>15</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="8">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFFDED4-D003-4189-8C46-771B5D5851C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366CB72-57CD-4AD5-B8C7-330354F12E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Tarea</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>Muestra la información principal de la bici de los dos select</t>
+  </si>
+  <si>
+    <t>Commit 1.14</t>
+  </si>
+  <si>
+    <t>Muestra de los componentes de las bicicletas 2 y 3 en el comparador</t>
+  </si>
+  <si>
+    <t>Quitar de la lista la bici con la que se entra al comparador orden de los componentes para el comparador dependiendo del tipo de bici</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,6 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +737,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C30" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C31" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1215,11 +1227,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1277,7 +1289,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>41.073333333333338</v>
+        <v>42.456666666666671</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1479,9 +1491,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="A27" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B27" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>68</v>
@@ -1518,6 +1532,17 @@
       </c>
       <c r="C30" s="4" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="8">
+        <v>73</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366CB72-57CD-4AD5-B8C7-330354F12E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B40D70-87F4-47CA-84D6-DDFF87D0C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>Tarea</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Pendiente</t>
-  </si>
-  <si>
-    <t>En progreso</t>
   </si>
   <si>
     <t>Hecho</t>
@@ -269,6 +266,24 @@
   </si>
   <si>
     <t>Quitar de la lista la bici con la que se entra al comparador orden de los componentes para el comparador dependiendo del tipo de bici</t>
+  </si>
+  <si>
+    <t>No mostraba los componentes que en el nombre tenian espacios como por ejemplo "Manetas Cambio"</t>
+  </si>
+  <si>
+    <t>Commit 1.15</t>
+  </si>
+  <si>
+    <t>Mostrar Componentes</t>
+  </si>
+  <si>
+    <t>Mostrar los componentes de las bicicletas seleccionadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar Power Point </t>
+  </si>
+  <si>
+    <t>Realizar power point de presentación del proyecto</t>
   </si>
 </sst>
 </file>
@@ -725,8 +740,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C14" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="A1:C14" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}" name="Tabla1" displayName="Tabla1" ref="A1:C16" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:C16" xr:uid="{A024E3EF-26FF-43A1-83D1-69643BA8A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A5DBCF8F-4BC1-4879-B689-2D77A586A005}" name="Tarea" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{458DB65B-2E4E-443C-8FEC-7BC129152EF6}" name="Descripción" dataDxfId="12"/>
@@ -737,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C31" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C32" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1036,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1091,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1099,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1113,18 +1128,18 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,62 +1150,62 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1202,6 +1217,28 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1227,11 +1264,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,18 +1280,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -1262,7 +1299,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10">
         <v>30</v>
@@ -1270,26 +1307,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8">
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8">
         <v>180</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>42.456666666666671</v>
+        <v>42.79</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1297,7 +1334,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8">
         <v>90</v>
@@ -1305,7 +1342,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8">
         <v>90</v>
@@ -1313,7 +1350,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8">
         <v>180</v>
@@ -1321,7 +1358,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8">
         <v>15</v>
@@ -1329,7 +1366,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>150</v>
@@ -1337,7 +1374,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
@@ -1345,7 +1382,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -1353,7 +1390,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>13.4</v>
@@ -1361,51 +1398,51 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8">
         <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8">
         <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8">
         <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="8">
         <v>158</v>
@@ -1413,18 +1450,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="8">
         <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8">
         <v>60</v>
@@ -1432,7 +1469,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -1440,18 +1477,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8">
         <v>40</v>
@@ -1459,90 +1496,101 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="8">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="8">
         <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="8">
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="8">
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="8">
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="8">
         <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="8">
         <v>73</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>75</v>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="8">
+        <v>20</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B40D70-87F4-47CA-84D6-DDFF87D0C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC02AB-E687-4C6C-ADBD-7739E5114E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Tarea</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>Realizar power point de presentación del proyecto</t>
+  </si>
+  <si>
+    <t>Funciones para quitar y poner los modelos que están seleccionados de las listas de los select</t>
+  </si>
+  <si>
+    <t>Commit 1.16</t>
+  </si>
+  <si>
+    <t>Componentes que me faltaban</t>
+  </si>
+  <si>
+    <t>Commit 1.17</t>
   </si>
 </sst>
 </file>
@@ -752,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C32" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C35" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1264,11 +1276,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,7 +1338,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>42.79</v>
+        <v>43.623333333333335</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1589,9 +1601,36 @@
       <c r="B32" s="8">
         <v>20</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="4" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC02AB-E687-4C6C-ADBD-7739E5114E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18D4B3-1E09-4C55-A018-3BC0C7218D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Tarea</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>Commit 1.17</t>
+  </si>
+  <si>
+    <t>Cambio del logo porque estaba escrito Compartor en verde Comparator</t>
+  </si>
+  <si>
+    <t>Commit 1.18</t>
+  </si>
+  <si>
+    <t>Calificación de las bicicletas</t>
+  </si>
+  <si>
+    <t>Commit 1.19</t>
   </si>
 </sst>
 </file>
@@ -764,8 +776,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C35" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C36" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1276,11 +1288,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1338,7 +1349,7 @@
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>43.623333333333335</v>
+        <v>49.34</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1612,7 +1623,7 @@
       <c r="B33" s="8">
         <v>20</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1623,14 +1634,31 @@
       <c r="B34" s="8">
         <v>30</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="15"/>
+      <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="8">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="8">
+        <v>283</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentación/Seguimiento Proyecto.xlsx
+++ b/Documentación/Seguimiento Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Downloads\Comparador-Bicicletas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18D4B3-1E09-4C55-A018-3BC0C7218D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B252A-E136-4D0D-9EED-A576F4C2D9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas Proyecto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Tarea</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Explicar arquitectura y funcionamiento</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
   <si>
     <t>Hecho</t>
@@ -308,6 +305,18 @@
   </si>
   <si>
     <t>Commit 1.19</t>
+  </si>
+  <si>
+    <t>Mostrar en el comparador una descripción emergente de cada componente</t>
+  </si>
+  <si>
+    <t>Liada con la calificación de las bicicletas y cambios en el estilo del comparador</t>
+  </si>
+  <si>
+    <t>Commit 1.20</t>
+  </si>
+  <si>
+    <t>En progreso</t>
   </si>
 </sst>
 </file>
@@ -776,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:C36" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}" name="Tabla2" displayName="Tabla2" ref="A1:C39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:C39" xr:uid="{19962928-C5C1-43B1-92B1-2C63E0C2A118}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DDBE78C-C9B3-40FF-B03A-2C1D9BBAC48D}" name="Descripción de lo realizado" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{604AB29D-9991-48B3-9503-96998609FA2F}" name="Tiempo Implementado" dataDxfId="4"/>
@@ -1077,8 +1086,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1119,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1130,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1138,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1152,18 +1161,18 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1174,62 +1183,62 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1240,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1251,18 +1260,18 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1288,10 +1297,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838C3E-A55D-4EF8-9723-98E491DBCC69}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,18 +1312,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -1322,7 +1331,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10">
         <v>30</v>
@@ -1330,26 +1339,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8">
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>180</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(B2:B1048576)/60</f>
-        <v>49.34</v>
+        <v>54.506666666666668</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="14"/>
@@ -1357,7 +1366,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8">
         <v>90</v>
@@ -1365,7 +1374,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8">
         <v>90</v>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8">
         <v>180</v>
@@ -1381,7 +1390,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8">
         <v>15</v>
@@ -1389,7 +1398,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8">
         <v>150</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8">
         <v>200</v>
@@ -1405,7 +1414,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -1413,7 +1422,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>13.4</v>
@@ -1421,51 +1430,51 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8">
         <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8">
         <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8">
         <v>160</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8">
         <v>158</v>
@@ -1473,18 +1482,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="8">
         <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8">
         <v>60</v>
@@ -1492,7 +1501,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -1500,18 +1509,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="8">
         <v>40</v>
@@ -1519,146 +1528,171 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="8">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8">
         <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="8">
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="8">
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="8">
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="8">
         <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="8">
         <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8">
         <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="8">
         <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="8">
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="8">
         <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="8">
         <v>283</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="8">
+        <v>180</v>
+      </c>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="B38" s="8">
+        <v>130</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
